--- a/data/Krasnodar_Yandex_10.xlsx
+++ b/data/Krasnodar_Yandex_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AE57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6089,6 +6089,1059 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>35</v>
+      </c>
+      <c r="C49" t="n">
+        <v>35</v>
+      </c>
+      <c r="D49" t="n">
+        <v>36</v>
+      </c>
+      <c r="E49" t="n">
+        <v>38</v>
+      </c>
+      <c r="F49" t="n">
+        <v>37</v>
+      </c>
+      <c r="G49" t="n">
+        <v>36</v>
+      </c>
+      <c r="H49" t="n">
+        <v>34</v>
+      </c>
+      <c r="I49" t="n">
+        <v>34</v>
+      </c>
+      <c r="J49" t="n">
+        <v>34</v>
+      </c>
+      <c r="K49" t="n">
+        <v>35</v>
+      </c>
+      <c r="L49" t="n">
+        <v>24</v>
+      </c>
+      <c r="M49" t="n">
+        <v>24</v>
+      </c>
+      <c r="N49" t="n">
+        <v>25</v>
+      </c>
+      <c r="O49" t="n">
+        <v>27</v>
+      </c>
+      <c r="P49" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>26</v>
+      </c>
+      <c r="R49" t="n">
+        <v>25</v>
+      </c>
+      <c r="S49" t="n">
+        <v>24</v>
+      </c>
+      <c r="T49" t="n">
+        <v>25</v>
+      </c>
+      <c r="U49" t="n">
+        <v>24</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Гроза</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>36</v>
+      </c>
+      <c r="C50" t="n">
+        <v>35</v>
+      </c>
+      <c r="D50" t="n">
+        <v>37</v>
+      </c>
+      <c r="E50" t="n">
+        <v>38</v>
+      </c>
+      <c r="F50" t="n">
+        <v>37</v>
+      </c>
+      <c r="G50" t="n">
+        <v>35</v>
+      </c>
+      <c r="H50" t="n">
+        <v>35</v>
+      </c>
+      <c r="I50" t="n">
+        <v>36</v>
+      </c>
+      <c r="J50" t="n">
+        <v>36</v>
+      </c>
+      <c r="K50" t="n">
+        <v>34</v>
+      </c>
+      <c r="L50" t="n">
+        <v>24</v>
+      </c>
+      <c r="M50" t="n">
+        <v>25</v>
+      </c>
+      <c r="N50" t="n">
+        <v>26</v>
+      </c>
+      <c r="O50" t="n">
+        <v>27</v>
+      </c>
+      <c r="P50" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>24</v>
+      </c>
+      <c r="R50" t="n">
+        <v>24</v>
+      </c>
+      <c r="S50" t="n">
+        <v>25</v>
+      </c>
+      <c r="T50" t="n">
+        <v>24</v>
+      </c>
+      <c r="U50" t="n">
+        <v>23</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>Гроза</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>35</v>
+      </c>
+      <c r="C51" t="n">
+        <v>37</v>
+      </c>
+      <c r="D51" t="n">
+        <v>38</v>
+      </c>
+      <c r="E51" t="n">
+        <v>37</v>
+      </c>
+      <c r="F51" t="n">
+        <v>36</v>
+      </c>
+      <c r="G51" t="n">
+        <v>35</v>
+      </c>
+      <c r="H51" t="n">
+        <v>36</v>
+      </c>
+      <c r="I51" t="n">
+        <v>34</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33</v>
+      </c>
+      <c r="K51" t="n">
+        <v>35</v>
+      </c>
+      <c r="L51" t="n">
+        <v>25</v>
+      </c>
+      <c r="M51" t="n">
+        <v>25</v>
+      </c>
+      <c r="N51" t="n">
+        <v>27</v>
+      </c>
+      <c r="O51" t="n">
+        <v>27</v>
+      </c>
+      <c r="P51" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>25</v>
+      </c>
+      <c r="S51" t="n">
+        <v>23</v>
+      </c>
+      <c r="T51" t="n">
+        <v>24</v>
+      </c>
+      <c r="U51" t="n">
+        <v>24</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>Гроза</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>36</v>
+      </c>
+      <c r="C52" t="n">
+        <v>38</v>
+      </c>
+      <c r="D52" t="n">
+        <v>37</v>
+      </c>
+      <c r="E52" t="n">
+        <v>36</v>
+      </c>
+      <c r="F52" t="n">
+        <v>35</v>
+      </c>
+      <c r="G52" t="n">
+        <v>37</v>
+      </c>
+      <c r="H52" t="n">
+        <v>36</v>
+      </c>
+      <c r="I52" t="n">
+        <v>34</v>
+      </c>
+      <c r="J52" t="n">
+        <v>34</v>
+      </c>
+      <c r="K52" t="n">
+        <v>35</v>
+      </c>
+      <c r="L52" t="n">
+        <v>26</v>
+      </c>
+      <c r="M52" t="n">
+        <v>26</v>
+      </c>
+      <c r="N52" t="n">
+        <v>27</v>
+      </c>
+      <c r="O52" t="n">
+        <v>26</v>
+      </c>
+      <c r="P52" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>26</v>
+      </c>
+      <c r="R52" t="n">
+        <v>25</v>
+      </c>
+      <c r="S52" t="n">
+        <v>24</v>
+      </c>
+      <c r="T52" t="n">
+        <v>24</v>
+      </c>
+      <c r="U52" t="n">
+        <v>23</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>38</v>
+      </c>
+      <c r="C53" t="n">
+        <v>37</v>
+      </c>
+      <c r="D53" t="n">
+        <v>34</v>
+      </c>
+      <c r="E53" t="n">
+        <v>35</v>
+      </c>
+      <c r="F53" t="n">
+        <v>36</v>
+      </c>
+      <c r="G53" t="n">
+        <v>34</v>
+      </c>
+      <c r="H53" t="n">
+        <v>34</v>
+      </c>
+      <c r="I53" t="n">
+        <v>35</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="n">
+        <v>34</v>
+      </c>
+      <c r="L53" t="n">
+        <v>27</v>
+      </c>
+      <c r="M53" t="n">
+        <v>28</v>
+      </c>
+      <c r="N53" t="n">
+        <v>26</v>
+      </c>
+      <c r="O53" t="n">
+        <v>25</v>
+      </c>
+      <c r="P53" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>24</v>
+      </c>
+      <c r="R53" t="n">
+        <v>24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>25</v>
+      </c>
+      <c r="T53" t="n">
+        <v>25</v>
+      </c>
+      <c r="U53" t="n">
+        <v>23</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>37</v>
+      </c>
+      <c r="C54" t="n">
+        <v>34</v>
+      </c>
+      <c r="D54" t="n">
+        <v>34</v>
+      </c>
+      <c r="E54" t="n">
+        <v>36</v>
+      </c>
+      <c r="F54" t="n">
+        <v>33</v>
+      </c>
+      <c r="G54" t="n">
+        <v>34</v>
+      </c>
+      <c r="H54" t="n">
+        <v>36</v>
+      </c>
+      <c r="I54" t="n">
+        <v>36</v>
+      </c>
+      <c r="J54" t="n">
+        <v>36</v>
+      </c>
+      <c r="K54" t="n">
+        <v>35</v>
+      </c>
+      <c r="L54" t="n">
+        <v>27</v>
+      </c>
+      <c r="M54" t="n">
+        <v>26</v>
+      </c>
+      <c r="N54" t="n">
+        <v>25</v>
+      </c>
+      <c r="O54" t="n">
+        <v>26</v>
+      </c>
+      <c r="P54" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>24</v>
+      </c>
+      <c r="R54" t="n">
+        <v>25</v>
+      </c>
+      <c r="S54" t="n">
+        <v>26</v>
+      </c>
+      <c r="T54" t="n">
+        <v>24</v>
+      </c>
+      <c r="U54" t="n">
+        <v>24</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>34</v>
+      </c>
+      <c r="C55" t="n">
+        <v>34</v>
+      </c>
+      <c r="D55" t="n">
+        <v>37</v>
+      </c>
+      <c r="E55" t="n">
+        <v>34</v>
+      </c>
+      <c r="F55" t="n">
+        <v>34</v>
+      </c>
+      <c r="G55" t="n">
+        <v>36</v>
+      </c>
+      <c r="H55" t="n">
+        <v>37</v>
+      </c>
+      <c r="I55" t="n">
+        <v>36</v>
+      </c>
+      <c r="J55" t="n">
+        <v>35</v>
+      </c>
+      <c r="K55" t="n">
+        <v>34</v>
+      </c>
+      <c r="L55" t="n">
+        <v>26</v>
+      </c>
+      <c r="M55" t="n">
+        <v>25</v>
+      </c>
+      <c r="N55" t="n">
+        <v>26</v>
+      </c>
+      <c r="O55" t="n">
+        <v>24</v>
+      </c>
+      <c r="P55" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>25</v>
+      </c>
+      <c r="R55" t="n">
+        <v>26</v>
+      </c>
+      <c r="S55" t="n">
+        <v>25</v>
+      </c>
+      <c r="T55" t="n">
+        <v>24</v>
+      </c>
+      <c r="U55" t="n">
+        <v>23</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>34</v>
+      </c>
+      <c r="C56" t="n">
+        <v>37</v>
+      </c>
+      <c r="D56" t="n">
+        <v>35</v>
+      </c>
+      <c r="E56" t="n">
+        <v>34</v>
+      </c>
+      <c r="F56" t="n">
+        <v>36</v>
+      </c>
+      <c r="G56" t="n">
+        <v>37</v>
+      </c>
+      <c r="H56" t="n">
+        <v>37</v>
+      </c>
+      <c r="I56" t="n">
+        <v>36</v>
+      </c>
+      <c r="J56" t="n">
+        <v>34</v>
+      </c>
+      <c r="K56" t="n">
+        <v>32</v>
+      </c>
+      <c r="L56" t="n">
+        <v>25</v>
+      </c>
+      <c r="M56" t="n">
+        <v>25</v>
+      </c>
+      <c r="N56" t="n">
+        <v>23</v>
+      </c>
+      <c r="O56" t="n">
+        <v>25</v>
+      </c>
+      <c r="P56" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>27</v>
+      </c>
+      <c r="R56" t="n">
+        <v>25</v>
+      </c>
+      <c r="S56" t="n">
+        <v>24</v>
+      </c>
+      <c r="T56" t="n">
+        <v>24</v>
+      </c>
+      <c r="U56" t="n">
+        <v>22</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Гроза</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>36</v>
+      </c>
+      <c r="C57" t="n">
+        <v>34</v>
+      </c>
+      <c r="D57" t="n">
+        <v>34</v>
+      </c>
+      <c r="E57" t="n">
+        <v>35</v>
+      </c>
+      <c r="F57" t="n">
+        <v>37</v>
+      </c>
+      <c r="G57" t="n">
+        <v>37</v>
+      </c>
+      <c r="H57" t="n">
+        <v>36</v>
+      </c>
+      <c r="I57" t="n">
+        <v>36</v>
+      </c>
+      <c r="J57" t="n">
+        <v>36</v>
+      </c>
+      <c r="K57" t="n">
+        <v>34</v>
+      </c>
+      <c r="L57" t="n">
+        <v>25</v>
+      </c>
+      <c r="M57" t="n">
+        <v>23</v>
+      </c>
+      <c r="N57" t="n">
+        <v>24</v>
+      </c>
+      <c r="O57" t="n">
+        <v>26</v>
+      </c>
+      <c r="P57" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>25</v>
+      </c>
+      <c r="R57" t="n">
+        <v>26</v>
+      </c>
+      <c r="S57" t="n">
+        <v>25</v>
+      </c>
+      <c r="T57" t="n">
+        <v>25</v>
+      </c>
+      <c r="U57" t="n">
+        <v>25</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Krasnodar_Yandex_10.xlsx
+++ b/data/Krasnodar_Yandex_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE57"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7142,6 +7142,2112 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>34</v>
+      </c>
+      <c r="C58" t="n">
+        <v>35</v>
+      </c>
+      <c r="D58" t="n">
+        <v>36</v>
+      </c>
+      <c r="E58" t="n">
+        <v>37</v>
+      </c>
+      <c r="F58" t="n">
+        <v>38</v>
+      </c>
+      <c r="G58" t="n">
+        <v>38</v>
+      </c>
+      <c r="H58" t="n">
+        <v>37</v>
+      </c>
+      <c r="I58" t="n">
+        <v>34</v>
+      </c>
+      <c r="J58" t="n">
+        <v>35</v>
+      </c>
+      <c r="K58" t="n">
+        <v>36</v>
+      </c>
+      <c r="L58" t="n">
+        <v>23</v>
+      </c>
+      <c r="M58" t="n">
+        <v>24</v>
+      </c>
+      <c r="N58" t="n">
+        <v>26</v>
+      </c>
+      <c r="O58" t="n">
+        <v>28</v>
+      </c>
+      <c r="P58" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>24</v>
+      </c>
+      <c r="T58" t="n">
+        <v>25</v>
+      </c>
+      <c r="U58" t="n">
+        <v>24</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>35</v>
+      </c>
+      <c r="C59" t="n">
+        <v>36</v>
+      </c>
+      <c r="D59" t="n">
+        <v>38</v>
+      </c>
+      <c r="E59" t="n">
+        <v>38</v>
+      </c>
+      <c r="F59" t="n">
+        <v>38</v>
+      </c>
+      <c r="G59" t="n">
+        <v>38</v>
+      </c>
+      <c r="H59" t="n">
+        <v>37</v>
+      </c>
+      <c r="I59" t="n">
+        <v>35</v>
+      </c>
+      <c r="J59" t="n">
+        <v>35</v>
+      </c>
+      <c r="K59" t="n">
+        <v>35</v>
+      </c>
+      <c r="L59" t="n">
+        <v>24</v>
+      </c>
+      <c r="M59" t="n">
+        <v>26</v>
+      </c>
+      <c r="N59" t="n">
+        <v>26</v>
+      </c>
+      <c r="O59" t="n">
+        <v>28</v>
+      </c>
+      <c r="P59" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>26</v>
+      </c>
+      <c r="R59" t="n">
+        <v>24</v>
+      </c>
+      <c r="S59" t="n">
+        <v>24</v>
+      </c>
+      <c r="T59" t="n">
+        <v>24</v>
+      </c>
+      <c r="U59" t="n">
+        <v>24</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>Гроза</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>36</v>
+      </c>
+      <c r="C60" t="n">
+        <v>38</v>
+      </c>
+      <c r="D60" t="n">
+        <v>38</v>
+      </c>
+      <c r="E60" t="n">
+        <v>38</v>
+      </c>
+      <c r="F60" t="n">
+        <v>38</v>
+      </c>
+      <c r="G60" t="n">
+        <v>36</v>
+      </c>
+      <c r="H60" t="n">
+        <v>35</v>
+      </c>
+      <c r="I60" t="n">
+        <v>34</v>
+      </c>
+      <c r="J60" t="n">
+        <v>35</v>
+      </c>
+      <c r="K60" t="n">
+        <v>35</v>
+      </c>
+      <c r="L60" t="n">
+        <v>26</v>
+      </c>
+      <c r="M60" t="n">
+        <v>26</v>
+      </c>
+      <c r="N60" t="n">
+        <v>28</v>
+      </c>
+      <c r="O60" t="n">
+        <v>26</v>
+      </c>
+      <c r="P60" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>25</v>
+      </c>
+      <c r="R60" t="n">
+        <v>24</v>
+      </c>
+      <c r="S60" t="n">
+        <v>23</v>
+      </c>
+      <c r="T60" t="n">
+        <v>24</v>
+      </c>
+      <c r="U60" t="n">
+        <v>23</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>38</v>
+      </c>
+      <c r="C61" t="n">
+        <v>39</v>
+      </c>
+      <c r="D61" t="n">
+        <v>38</v>
+      </c>
+      <c r="E61" t="n">
+        <v>38</v>
+      </c>
+      <c r="F61" t="n">
+        <v>35</v>
+      </c>
+      <c r="G61" t="n">
+        <v>34</v>
+      </c>
+      <c r="H61" t="n">
+        <v>35</v>
+      </c>
+      <c r="I61" t="n">
+        <v>34</v>
+      </c>
+      <c r="J61" t="n">
+        <v>33</v>
+      </c>
+      <c r="K61" t="n">
+        <v>33</v>
+      </c>
+      <c r="L61" t="n">
+        <v>26</v>
+      </c>
+      <c r="M61" t="n">
+        <v>28</v>
+      </c>
+      <c r="N61" t="n">
+        <v>25</v>
+      </c>
+      <c r="O61" t="n">
+        <v>25</v>
+      </c>
+      <c r="P61" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>24</v>
+      </c>
+      <c r="R61" t="n">
+        <v>22</v>
+      </c>
+      <c r="S61" t="n">
+        <v>24</v>
+      </c>
+      <c r="T61" t="n">
+        <v>23</v>
+      </c>
+      <c r="U61" t="n">
+        <v>22</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>39</v>
+      </c>
+      <c r="C62" t="n">
+        <v>38</v>
+      </c>
+      <c r="D62" t="n">
+        <v>38</v>
+      </c>
+      <c r="E62" t="n">
+        <v>36</v>
+      </c>
+      <c r="F62" t="n">
+        <v>36</v>
+      </c>
+      <c r="G62" t="n">
+        <v>35</v>
+      </c>
+      <c r="H62" t="n">
+        <v>33</v>
+      </c>
+      <c r="I62" t="n">
+        <v>32</v>
+      </c>
+      <c r="J62" t="n">
+        <v>32</v>
+      </c>
+      <c r="K62" t="n">
+        <v>32</v>
+      </c>
+      <c r="L62" t="n">
+        <v>28</v>
+      </c>
+      <c r="M62" t="n">
+        <v>24</v>
+      </c>
+      <c r="N62" t="n">
+        <v>26</v>
+      </c>
+      <c r="O62" t="n">
+        <v>24</v>
+      </c>
+      <c r="P62" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>24</v>
+      </c>
+      <c r="R62" t="n">
+        <v>23</v>
+      </c>
+      <c r="S62" t="n">
+        <v>22</v>
+      </c>
+      <c r="T62" t="n">
+        <v>23</v>
+      </c>
+      <c r="U62" t="n">
+        <v>24</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>38</v>
+      </c>
+      <c r="C63" t="n">
+        <v>39</v>
+      </c>
+      <c r="D63" t="n">
+        <v>36</v>
+      </c>
+      <c r="E63" t="n">
+        <v>34</v>
+      </c>
+      <c r="F63" t="n">
+        <v>35</v>
+      </c>
+      <c r="G63" t="n">
+        <v>32</v>
+      </c>
+      <c r="H63" t="n">
+        <v>31</v>
+      </c>
+      <c r="I63" t="n">
+        <v>31</v>
+      </c>
+      <c r="J63" t="n">
+        <v>30</v>
+      </c>
+      <c r="K63" t="n">
+        <v>30</v>
+      </c>
+      <c r="L63" t="n">
+        <v>24</v>
+      </c>
+      <c r="M63" t="n">
+        <v>26</v>
+      </c>
+      <c r="N63" t="n">
+        <v>24</v>
+      </c>
+      <c r="O63" t="n">
+        <v>25</v>
+      </c>
+      <c r="P63" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>23</v>
+      </c>
+      <c r="R63" t="n">
+        <v>22</v>
+      </c>
+      <c r="S63" t="n">
+        <v>22</v>
+      </c>
+      <c r="T63" t="n">
+        <v>22</v>
+      </c>
+      <c r="U63" t="n">
+        <v>20</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>38</v>
+      </c>
+      <c r="C64" t="n">
+        <v>37</v>
+      </c>
+      <c r="D64" t="n">
+        <v>35</v>
+      </c>
+      <c r="E64" t="n">
+        <v>34</v>
+      </c>
+      <c r="F64" t="n">
+        <v>32</v>
+      </c>
+      <c r="G64" t="n">
+        <v>29</v>
+      </c>
+      <c r="H64" t="n">
+        <v>31</v>
+      </c>
+      <c r="I64" t="n">
+        <v>34</v>
+      </c>
+      <c r="J64" t="n">
+        <v>29</v>
+      </c>
+      <c r="K64" t="n">
+        <v>30</v>
+      </c>
+      <c r="L64" t="n">
+        <v>26</v>
+      </c>
+      <c r="M64" t="n">
+        <v>23</v>
+      </c>
+      <c r="N64" t="n">
+        <v>25</v>
+      </c>
+      <c r="O64" t="n">
+        <v>24</v>
+      </c>
+      <c r="P64" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>21</v>
+      </c>
+      <c r="R64" t="n">
+        <v>22</v>
+      </c>
+      <c r="S64" t="n">
+        <v>24</v>
+      </c>
+      <c r="T64" t="n">
+        <v>22</v>
+      </c>
+      <c r="U64" t="n">
+        <v>22</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>36</v>
+      </c>
+      <c r="C65" t="n">
+        <v>35</v>
+      </c>
+      <c r="D65" t="n">
+        <v>35</v>
+      </c>
+      <c r="E65" t="n">
+        <v>30</v>
+      </c>
+      <c r="F65" t="n">
+        <v>30</v>
+      </c>
+      <c r="G65" t="n">
+        <v>30</v>
+      </c>
+      <c r="H65" t="n">
+        <v>32</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31</v>
+      </c>
+      <c r="J65" t="n">
+        <v>31</v>
+      </c>
+      <c r="K65" t="n">
+        <v>31</v>
+      </c>
+      <c r="L65" t="n">
+        <v>23</v>
+      </c>
+      <c r="M65" t="n">
+        <v>25</v>
+      </c>
+      <c r="N65" t="n">
+        <v>24</v>
+      </c>
+      <c r="O65" t="n">
+        <v>22</v>
+      </c>
+      <c r="P65" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>22</v>
+      </c>
+      <c r="R65" t="n">
+        <v>23</v>
+      </c>
+      <c r="S65" t="n">
+        <v>24</v>
+      </c>
+      <c r="T65" t="n">
+        <v>21</v>
+      </c>
+      <c r="U65" t="n">
+        <v>22</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>35</v>
+      </c>
+      <c r="C66" t="n">
+        <v>35</v>
+      </c>
+      <c r="D66" t="n">
+        <v>30</v>
+      </c>
+      <c r="E66" t="n">
+        <v>30</v>
+      </c>
+      <c r="F66" t="n">
+        <v>31</v>
+      </c>
+      <c r="G66" t="n">
+        <v>32</v>
+      </c>
+      <c r="H66" t="n">
+        <v>26</v>
+      </c>
+      <c r="I66" t="n">
+        <v>26</v>
+      </c>
+      <c r="J66" t="n">
+        <v>29</v>
+      </c>
+      <c r="K66" t="n">
+        <v>29</v>
+      </c>
+      <c r="L66" t="n">
+        <v>24</v>
+      </c>
+      <c r="M66" t="n">
+        <v>24</v>
+      </c>
+      <c r="N66" t="n">
+        <v>21</v>
+      </c>
+      <c r="O66" t="n">
+        <v>21</v>
+      </c>
+      <c r="P66" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>23</v>
+      </c>
+      <c r="R66" t="n">
+        <v>21</v>
+      </c>
+      <c r="S66" t="n">
+        <v>20</v>
+      </c>
+      <c r="T66" t="n">
+        <v>20</v>
+      </c>
+      <c r="U66" t="n">
+        <v>20</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Пасмурно</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Дождь</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>Дождь</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>35</v>
+      </c>
+      <c r="C67" t="n">
+        <v>29</v>
+      </c>
+      <c r="D67" t="n">
+        <v>30</v>
+      </c>
+      <c r="E67" t="n">
+        <v>31</v>
+      </c>
+      <c r="F67" t="n">
+        <v>32</v>
+      </c>
+      <c r="G67" t="n">
+        <v>30</v>
+      </c>
+      <c r="H67" t="n">
+        <v>28</v>
+      </c>
+      <c r="I67" t="n">
+        <v>32</v>
+      </c>
+      <c r="J67" t="n">
+        <v>32</v>
+      </c>
+      <c r="K67" t="n">
+        <v>32</v>
+      </c>
+      <c r="L67" t="n">
+        <v>24</v>
+      </c>
+      <c r="M67" t="n">
+        <v>21</v>
+      </c>
+      <c r="N67" t="n">
+        <v>20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>22</v>
+      </c>
+      <c r="R67" t="n">
+        <v>20</v>
+      </c>
+      <c r="S67" t="n">
+        <v>21</v>
+      </c>
+      <c r="T67" t="n">
+        <v>22</v>
+      </c>
+      <c r="U67" t="n">
+        <v>22</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Небольшой дождь</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>30</v>
+      </c>
+      <c r="C68" t="n">
+        <v>30</v>
+      </c>
+      <c r="D68" t="n">
+        <v>31</v>
+      </c>
+      <c r="E68" t="n">
+        <v>32</v>
+      </c>
+      <c r="F68" t="n">
+        <v>30</v>
+      </c>
+      <c r="G68" t="n">
+        <v>32</v>
+      </c>
+      <c r="H68" t="n">
+        <v>33</v>
+      </c>
+      <c r="I68" t="n">
+        <v>34</v>
+      </c>
+      <c r="J68" t="n">
+        <v>31</v>
+      </c>
+      <c r="K68" t="n">
+        <v>32</v>
+      </c>
+      <c r="L68" t="n">
+        <v>21</v>
+      </c>
+      <c r="M68" t="n">
+        <v>20</v>
+      </c>
+      <c r="N68" t="n">
+        <v>22</v>
+      </c>
+      <c r="O68" t="n">
+        <v>23</v>
+      </c>
+      <c r="P68" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>21</v>
+      </c>
+      <c r="R68" t="n">
+        <v>22</v>
+      </c>
+      <c r="S68" t="n">
+        <v>22</v>
+      </c>
+      <c r="T68" t="n">
+        <v>22</v>
+      </c>
+      <c r="U68" t="n">
+        <v>20</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>29</v>
+      </c>
+      <c r="C69" t="n">
+        <v>30</v>
+      </c>
+      <c r="D69" t="n">
+        <v>31</v>
+      </c>
+      <c r="E69" t="n">
+        <v>31</v>
+      </c>
+      <c r="F69" t="n">
+        <v>32</v>
+      </c>
+      <c r="G69" t="n">
+        <v>33</v>
+      </c>
+      <c r="H69" t="n">
+        <v>31</v>
+      </c>
+      <c r="I69" t="n">
+        <v>30</v>
+      </c>
+      <c r="J69" t="n">
+        <v>29</v>
+      </c>
+      <c r="K69" t="n">
+        <v>30</v>
+      </c>
+      <c r="L69" t="n">
+        <v>20</v>
+      </c>
+      <c r="M69" t="n">
+        <v>20</v>
+      </c>
+      <c r="N69" t="n">
+        <v>22</v>
+      </c>
+      <c r="O69" t="n">
+        <v>22</v>
+      </c>
+      <c r="P69" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>22</v>
+      </c>
+      <c r="R69" t="n">
+        <v>22</v>
+      </c>
+      <c r="S69" t="n">
+        <v>21</v>
+      </c>
+      <c r="T69" t="n">
+        <v>20</v>
+      </c>
+      <c r="U69" t="n">
+        <v>22</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>30</v>
+      </c>
+      <c r="C70" t="n">
+        <v>31</v>
+      </c>
+      <c r="D70" t="n">
+        <v>31</v>
+      </c>
+      <c r="E70" t="n">
+        <v>31</v>
+      </c>
+      <c r="F70" t="n">
+        <v>33</v>
+      </c>
+      <c r="G70" t="n">
+        <v>30</v>
+      </c>
+      <c r="H70" t="n">
+        <v>30</v>
+      </c>
+      <c r="I70" t="n">
+        <v>29</v>
+      </c>
+      <c r="J70" t="n">
+        <v>28</v>
+      </c>
+      <c r="K70" t="n">
+        <v>30</v>
+      </c>
+      <c r="L70" t="n">
+        <v>20</v>
+      </c>
+      <c r="M70" t="n">
+        <v>23</v>
+      </c>
+      <c r="N70" t="n">
+        <v>21</v>
+      </c>
+      <c r="O70" t="n">
+        <v>20</v>
+      </c>
+      <c r="P70" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>20</v>
+      </c>
+      <c r="R70" t="n">
+        <v>21</v>
+      </c>
+      <c r="S70" t="n">
+        <v>20</v>
+      </c>
+      <c r="T70" t="n">
+        <v>21</v>
+      </c>
+      <c r="U70" t="n">
+        <v>22</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>31</v>
+      </c>
+      <c r="C71" t="n">
+        <v>33</v>
+      </c>
+      <c r="D71" t="n">
+        <v>33</v>
+      </c>
+      <c r="E71" t="n">
+        <v>34</v>
+      </c>
+      <c r="F71" t="n">
+        <v>27</v>
+      </c>
+      <c r="G71" t="n">
+        <v>27</v>
+      </c>
+      <c r="H71" t="n">
+        <v>26</v>
+      </c>
+      <c r="I71" t="n">
+        <v>27</v>
+      </c>
+      <c r="J71" t="n">
+        <v>30</v>
+      </c>
+      <c r="K71" t="n">
+        <v>33</v>
+      </c>
+      <c r="L71" t="n">
+        <v>22</v>
+      </c>
+      <c r="M71" t="n">
+        <v>22</v>
+      </c>
+      <c r="N71" t="n">
+        <v>20</v>
+      </c>
+      <c r="O71" t="n">
+        <v>23</v>
+      </c>
+      <c r="P71" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>19</v>
+      </c>
+      <c r="R71" t="n">
+        <v>19</v>
+      </c>
+      <c r="S71" t="n">
+        <v>20</v>
+      </c>
+      <c r="T71" t="n">
+        <v>20</v>
+      </c>
+      <c r="U71" t="n">
+        <v>23</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-27</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>33</v>
+      </c>
+      <c r="C72" t="n">
+        <v>33</v>
+      </c>
+      <c r="D72" t="n">
+        <v>34</v>
+      </c>
+      <c r="E72" t="n">
+        <v>30</v>
+      </c>
+      <c r="F72" t="n">
+        <v>28</v>
+      </c>
+      <c r="G72" t="n">
+        <v>29</v>
+      </c>
+      <c r="H72" t="n">
+        <v>31</v>
+      </c>
+      <c r="I72" t="n">
+        <v>32</v>
+      </c>
+      <c r="J72" t="n">
+        <v>34</v>
+      </c>
+      <c r="K72" t="n">
+        <v>33</v>
+      </c>
+      <c r="L72" t="n">
+        <v>22</v>
+      </c>
+      <c r="M72" t="n">
+        <v>20</v>
+      </c>
+      <c r="N72" t="n">
+        <v>23</v>
+      </c>
+      <c r="O72" t="n">
+        <v>21</v>
+      </c>
+      <c r="P72" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>19</v>
+      </c>
+      <c r="R72" t="n">
+        <v>21</v>
+      </c>
+      <c r="S72" t="n">
+        <v>22</v>
+      </c>
+      <c r="T72" t="n">
+        <v>24</v>
+      </c>
+      <c r="U72" t="n">
+        <v>23</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>Дождь с грозой</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>33</v>
+      </c>
+      <c r="C73" t="n">
+        <v>34</v>
+      </c>
+      <c r="D73" t="n">
+        <v>30</v>
+      </c>
+      <c r="E73" t="n">
+        <v>27</v>
+      </c>
+      <c r="F73" t="n">
+        <v>29</v>
+      </c>
+      <c r="G73" t="n">
+        <v>31</v>
+      </c>
+      <c r="H73" t="n">
+        <v>32</v>
+      </c>
+      <c r="I73" t="n">
+        <v>34</v>
+      </c>
+      <c r="J73" t="n">
+        <v>33</v>
+      </c>
+      <c r="K73" t="n">
+        <v>32</v>
+      </c>
+      <c r="L73" t="n">
+        <v>20</v>
+      </c>
+      <c r="M73" t="n">
+        <v>23</v>
+      </c>
+      <c r="N73" t="n">
+        <v>20</v>
+      </c>
+      <c r="O73" t="n">
+        <v>20</v>
+      </c>
+      <c r="P73" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>20</v>
+      </c>
+      <c r="R73" t="n">
+        <v>22</v>
+      </c>
+      <c r="S73" t="n">
+        <v>23</v>
+      </c>
+      <c r="T73" t="n">
+        <v>24</v>
+      </c>
+      <c r="U73" t="n">
+        <v>24</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>34</v>
+      </c>
+      <c r="C74" t="n">
+        <v>30</v>
+      </c>
+      <c r="D74" t="n">
+        <v>28</v>
+      </c>
+      <c r="E74" t="n">
+        <v>30</v>
+      </c>
+      <c r="F74" t="n">
+        <v>32</v>
+      </c>
+      <c r="G74" t="n">
+        <v>33</v>
+      </c>
+      <c r="H74" t="n">
+        <v>34</v>
+      </c>
+      <c r="I74" t="n">
+        <v>32</v>
+      </c>
+      <c r="J74" t="n">
+        <v>31</v>
+      </c>
+      <c r="K74" t="n">
+        <v>33</v>
+      </c>
+      <c r="L74" t="n">
+        <v>23</v>
+      </c>
+      <c r="M74" t="n">
+        <v>20</v>
+      </c>
+      <c r="N74" t="n">
+        <v>19</v>
+      </c>
+      <c r="O74" t="n">
+        <v>19</v>
+      </c>
+      <c r="P74" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>22</v>
+      </c>
+      <c r="R74" t="n">
+        <v>23</v>
+      </c>
+      <c r="S74" t="n">
+        <v>22</v>
+      </c>
+      <c r="T74" t="n">
+        <v>22</v>
+      </c>
+      <c r="U74" t="n">
+        <v>22</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>31</v>
+      </c>
+      <c r="C75" t="n">
+        <v>28</v>
+      </c>
+      <c r="D75" t="n">
+        <v>31</v>
+      </c>
+      <c r="E75" t="n">
+        <v>32</v>
+      </c>
+      <c r="F75" t="n">
+        <v>33</v>
+      </c>
+      <c r="G75" t="n">
+        <v>34</v>
+      </c>
+      <c r="H75" t="n">
+        <v>30</v>
+      </c>
+      <c r="I75" t="n">
+        <v>33</v>
+      </c>
+      <c r="J75" t="n">
+        <v>31</v>
+      </c>
+      <c r="K75" t="n">
+        <v>33</v>
+      </c>
+      <c r="L75" t="n">
+        <v>20</v>
+      </c>
+      <c r="M75" t="n">
+        <v>20</v>
+      </c>
+      <c r="N75" t="n">
+        <v>20</v>
+      </c>
+      <c r="O75" t="n">
+        <v>21</v>
+      </c>
+      <c r="P75" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>23</v>
+      </c>
+      <c r="R75" t="n">
+        <v>22</v>
+      </c>
+      <c r="S75" t="n">
+        <v>22</v>
+      </c>
+      <c r="T75" t="n">
+        <v>21</v>
+      </c>
+      <c r="U75" t="n">
+        <v>22</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Малооблачно</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>Облачно с прояснениями</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>Ясно</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Krasnodar_Yandex_10.xlsx
+++ b/data/Krasnodar_Yandex_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="119">
   <si>
     <t>day1</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>2024-08-03</t>
   </si>
   <si>
     <t>Ливень</t>
@@ -722,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE77"/>
+  <dimension ref="A1:AE79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -888,34 +894,34 @@
         <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -983,34 +989,34 @@
         <v>15</v>
       </c>
       <c r="V3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1078,34 +1084,34 @@
         <v>16</v>
       </c>
       <c r="V4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1173,34 +1179,34 @@
         <v>15</v>
       </c>
       <c r="V5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1268,34 +1274,34 @@
         <v>16</v>
       </c>
       <c r="V6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1363,34 +1369,34 @@
         <v>16</v>
       </c>
       <c r="V7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AC7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1458,34 +1464,34 @@
         <v>17</v>
       </c>
       <c r="V8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AB8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1553,34 +1559,34 @@
         <v>18</v>
       </c>
       <c r="V9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1648,34 +1654,34 @@
         <v>18</v>
       </c>
       <c r="V10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1743,34 +1749,34 @@
         <v>18</v>
       </c>
       <c r="V11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1838,34 +1844,34 @@
         <v>17</v>
       </c>
       <c r="V12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1933,34 +1939,34 @@
         <v>20</v>
       </c>
       <c r="V13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2028,34 +2034,34 @@
         <v>18</v>
       </c>
       <c r="V14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -2123,34 +2129,34 @@
         <v>19</v>
       </c>
       <c r="V15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="X15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2218,34 +2224,34 @@
         <v>18</v>
       </c>
       <c r="V16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="W16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2313,34 +2319,34 @@
         <v>20</v>
       </c>
       <c r="V17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2408,34 +2414,34 @@
         <v>20</v>
       </c>
       <c r="V18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2503,34 +2509,34 @@
         <v>19</v>
       </c>
       <c r="V19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2598,34 +2604,34 @@
         <v>20</v>
       </c>
       <c r="V20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2693,34 +2699,34 @@
         <v>20</v>
       </c>
       <c r="V21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2788,34 +2794,34 @@
         <v>19</v>
       </c>
       <c r="V22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2883,34 +2889,34 @@
         <v>20</v>
       </c>
       <c r="V23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AE23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2978,34 +2984,34 @@
         <v>21</v>
       </c>
       <c r="V24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -3073,34 +3079,34 @@
         <v>20</v>
       </c>
       <c r="V25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -3168,34 +3174,34 @@
         <v>20</v>
       </c>
       <c r="V26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AB26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3263,34 +3269,34 @@
         <v>21</v>
       </c>
       <c r="V27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -3358,34 +3364,34 @@
         <v>23</v>
       </c>
       <c r="V28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3453,34 +3459,34 @@
         <v>21</v>
       </c>
       <c r="V29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z29" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3548,34 +3554,34 @@
         <v>21</v>
       </c>
       <c r="V30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE30" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3643,34 +3649,34 @@
         <v>22</v>
       </c>
       <c r="V31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3738,34 +3744,34 @@
         <v>22</v>
       </c>
       <c r="V32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3833,34 +3839,34 @@
         <v>21</v>
       </c>
       <c r="V33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3928,34 +3934,34 @@
         <v>19</v>
       </c>
       <c r="V34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -4023,34 +4029,34 @@
         <v>21</v>
       </c>
       <c r="V35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -4118,34 +4124,34 @@
         <v>20</v>
       </c>
       <c r="V36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AE36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -4213,34 +4219,34 @@
         <v>21</v>
       </c>
       <c r="V37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AE37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -4308,34 +4314,34 @@
         <v>20</v>
       </c>
       <c r="V38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -4403,34 +4409,34 @@
         <v>20</v>
       </c>
       <c r="V39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AA39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -4498,34 +4504,34 @@
         <v>19</v>
       </c>
       <c r="V40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4593,34 +4599,34 @@
         <v>20</v>
       </c>
       <c r="V41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -4688,34 +4694,34 @@
         <v>20</v>
       </c>
       <c r="V42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -4783,34 +4789,34 @@
         <v>21</v>
       </c>
       <c r="V43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X43" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -4878,34 +4884,34 @@
         <v>19</v>
       </c>
       <c r="V44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB44" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC44" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD44" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -4973,34 +4979,34 @@
         <v>22</v>
       </c>
       <c r="V45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AA45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE45" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -5068,34 +5074,34 @@
         <v>21</v>
       </c>
       <c r="V46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X46" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z46" t="s">
         <v>113</v>
       </c>
-      <c r="Y46" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>111</v>
-      </c>
       <c r="AA46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB46" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -5163,34 +5169,34 @@
         <v>24</v>
       </c>
       <c r="V47" t="s">
+        <v>115</v>
+      </c>
+      <c r="W47" t="s">
+        <v>110</v>
+      </c>
+      <c r="X47" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y47" t="s">
         <v>113</v>
       </c>
-      <c r="W47" t="s">
-        <v>108</v>
-      </c>
-      <c r="X47" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>111</v>
-      </c>
       <c r="Z47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -5258,34 +5264,34 @@
         <v>22</v>
       </c>
       <c r="V48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y48" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -5353,34 +5359,34 @@
         <v>24</v>
       </c>
       <c r="V49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y49" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z49" t="s">
         <v>113</v>
       </c>
-      <c r="Z49" t="s">
-        <v>111</v>
-      </c>
       <c r="AA49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AB49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -5448,34 +5454,34 @@
         <v>23</v>
       </c>
       <c r="V50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AA50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD50" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -5543,34 +5549,34 @@
         <v>24</v>
       </c>
       <c r="V51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -5638,34 +5644,34 @@
         <v>23</v>
       </c>
       <c r="V52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD52" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE52" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -5733,34 +5739,34 @@
         <v>23</v>
       </c>
       <c r="V53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z53" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD53" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AE53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -5828,34 +5834,34 @@
         <v>24</v>
       </c>
       <c r="V54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -5923,34 +5929,34 @@
         <v>23</v>
       </c>
       <c r="V55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -6018,34 +6024,34 @@
         <v>22</v>
       </c>
       <c r="V56" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="W56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -6113,34 +6119,34 @@
         <v>25</v>
       </c>
       <c r="V57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -6208,34 +6214,34 @@
         <v>24</v>
       </c>
       <c r="V58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6303,34 +6309,34 @@
         <v>24</v>
       </c>
       <c r="V59" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W59" t="s">
+        <v>115</v>
+      </c>
+      <c r="X59" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA59" t="s">
         <v>113</v>
       </c>
-      <c r="X59" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>111</v>
-      </c>
       <c r="AB59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC59" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AE59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6398,34 +6404,34 @@
         <v>23</v>
       </c>
       <c r="V60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6493,34 +6499,34 @@
         <v>22</v>
       </c>
       <c r="V61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z61" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AE61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6588,34 +6594,34 @@
         <v>24</v>
       </c>
       <c r="V62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W62" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z62" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6683,34 +6689,34 @@
         <v>20</v>
       </c>
       <c r="V63" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W63" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z63" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA63" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6778,34 +6784,34 @@
         <v>22</v>
       </c>
       <c r="V64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AA64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AB64" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6873,34 +6879,34 @@
         <v>22</v>
       </c>
       <c r="V65" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y65" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB65" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6968,34 +6974,34 @@
         <v>20</v>
       </c>
       <c r="V66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W66" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X66" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Y66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB66" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AC66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AD66" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -7063,34 +7069,34 @@
         <v>22</v>
       </c>
       <c r="V67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA67" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AB67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD67" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -7158,34 +7164,34 @@
         <v>20</v>
       </c>
       <c r="V68" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="W68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB68" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC68" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AE68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -7253,34 +7259,34 @@
         <v>22</v>
       </c>
       <c r="V69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA69" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC69" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE69" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -7348,34 +7354,34 @@
         <v>22</v>
       </c>
       <c r="V70" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y70" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z70" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB70" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -7443,34 +7449,34 @@
         <v>23</v>
       </c>
       <c r="V71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7538,34 +7544,34 @@
         <v>23</v>
       </c>
       <c r="V72" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y72" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z72" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA72" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB72" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE72" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -7633,34 +7639,34 @@
         <v>24</v>
       </c>
       <c r="V73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE73" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7728,34 +7734,34 @@
         <v>22</v>
       </c>
       <c r="V74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="W74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AB74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AC74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AE74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7823,34 +7829,34 @@
         <v>22</v>
       </c>
       <c r="V75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="X75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AA75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AB75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AD75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -7918,34 +7924,34 @@
         <v>22</v>
       </c>
       <c r="V76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y76" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AA76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AB76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AC76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AE76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -8013,34 +8019,224 @@
         <v>22</v>
       </c>
       <c r="V77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="W77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X77" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
+      <c r="A78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>34</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="E78">
+        <v>31</v>
+      </c>
+      <c r="F78">
+        <v>31</v>
+      </c>
+      <c r="G78">
+        <v>28</v>
+      </c>
+      <c r="H78">
+        <v>30</v>
+      </c>
+      <c r="I78">
+        <v>32</v>
+      </c>
+      <c r="J78">
+        <v>32</v>
+      </c>
+      <c r="K78">
+        <v>32</v>
+      </c>
+      <c r="L78">
+        <v>20</v>
+      </c>
+      <c r="M78">
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <v>23</v>
+      </c>
+      <c r="O78">
+        <v>22</v>
+      </c>
+      <c r="P78">
+        <v>22</v>
+      </c>
+      <c r="Q78">
+        <v>20</v>
+      </c>
+      <c r="R78">
+        <v>20</v>
+      </c>
+      <c r="S78">
+        <v>21</v>
+      </c>
+      <c r="T78">
+        <v>22</v>
+      </c>
+      <c r="U78">
+        <v>22</v>
+      </c>
+      <c r="V78" t="s">
+        <v>115</v>
+      </c>
+      <c r="W78" t="s">
+        <v>115</v>
+      </c>
+      <c r="X78" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
+      <c r="A79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Y77" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>108</v>
+      <c r="B79">
+        <v>34</v>
+      </c>
+      <c r="C79">
+        <v>35</v>
+      </c>
+      <c r="D79">
+        <v>31</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
+      <c r="F79">
+        <v>29</v>
+      </c>
+      <c r="G79">
+        <v>30</v>
+      </c>
+      <c r="H79">
+        <v>31</v>
+      </c>
+      <c r="I79">
+        <v>31</v>
+      </c>
+      <c r="J79">
+        <v>32</v>
+      </c>
+      <c r="K79">
+        <v>32</v>
+      </c>
+      <c r="L79">
+        <v>21</v>
+      </c>
+      <c r="M79">
+        <v>22</v>
+      </c>
+      <c r="N79">
+        <v>21</v>
+      </c>
+      <c r="O79">
+        <v>21</v>
+      </c>
+      <c r="P79">
+        <v>20</v>
+      </c>
+      <c r="Q79">
+        <v>20</v>
+      </c>
+      <c r="R79">
+        <v>20</v>
+      </c>
+      <c r="S79">
+        <v>21</v>
+      </c>
+      <c r="T79">
+        <v>22</v>
+      </c>
+      <c r="U79">
+        <v>21</v>
+      </c>
+      <c r="V79" t="s">
+        <v>115</v>
+      </c>
+      <c r="W79" t="s">
+        <v>115</v>
+      </c>
+      <c r="X79" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/Krasnodar_Yandex_10.xlsx
+++ b/data/Krasnodar_Yandex_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="123">
   <si>
     <t>day1</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>2024-08-03</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-08-06</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>2024-08-08</t>
   </si>
   <si>
     <t>Ливень</t>
@@ -728,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE79"/>
+  <dimension ref="A1:AE83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,34 +906,34 @@
         <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="W2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -989,34 +1001,34 @@
         <v>15</v>
       </c>
       <c r="V3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="W3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1084,34 +1096,34 @@
         <v>16</v>
       </c>
       <c r="V4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="W4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1179,34 +1191,34 @@
         <v>15</v>
       </c>
       <c r="V5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1274,34 +1286,34 @@
         <v>16</v>
       </c>
       <c r="V6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="W6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1369,34 +1381,34 @@
         <v>16</v>
       </c>
       <c r="V7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1464,34 +1476,34 @@
         <v>17</v>
       </c>
       <c r="V8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AB8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1559,34 +1571,34 @@
         <v>18</v>
       </c>
       <c r="V9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1654,34 +1666,34 @@
         <v>18</v>
       </c>
       <c r="V10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AA10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1749,34 +1761,34 @@
         <v>18</v>
       </c>
       <c r="V11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1844,34 +1856,34 @@
         <v>17</v>
       </c>
       <c r="V12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1939,34 +1951,34 @@
         <v>20</v>
       </c>
       <c r="V13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Z13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AA13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD13" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2034,34 +2046,34 @@
         <v>18</v>
       </c>
       <c r="V14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Y14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AE14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -2129,34 +2141,34 @@
         <v>19</v>
       </c>
       <c r="V15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="W15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2224,34 +2236,34 @@
         <v>18</v>
       </c>
       <c r="V16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="W16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2319,34 +2331,34 @@
         <v>20</v>
       </c>
       <c r="V17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2414,34 +2426,34 @@
         <v>20</v>
       </c>
       <c r="V18" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE18" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2509,34 +2521,34 @@
         <v>19</v>
       </c>
       <c r="V19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2604,34 +2616,34 @@
         <v>20</v>
       </c>
       <c r="V20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2699,34 +2711,34 @@
         <v>20</v>
       </c>
       <c r="V21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AB21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2794,34 +2806,34 @@
         <v>19</v>
       </c>
       <c r="V22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AA22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2889,34 +2901,34 @@
         <v>20</v>
       </c>
       <c r="V23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AE23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2984,34 +2996,34 @@
         <v>21</v>
       </c>
       <c r="V24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -3079,34 +3091,34 @@
         <v>20</v>
       </c>
       <c r="V25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AE25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -3174,34 +3186,34 @@
         <v>20</v>
       </c>
       <c r="V26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AB26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE26" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3269,34 +3281,34 @@
         <v>21</v>
       </c>
       <c r="V27" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="W27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE27" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -3364,34 +3376,34 @@
         <v>23</v>
       </c>
       <c r="V28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Y28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AB28" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE28" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3459,34 +3471,34 @@
         <v>21</v>
       </c>
       <c r="V29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AB29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3554,34 +3566,34 @@
         <v>21</v>
       </c>
       <c r="V30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AA30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AB30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE30" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3649,34 +3661,34 @@
         <v>22</v>
       </c>
       <c r="V31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W31" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AB31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3744,34 +3756,34 @@
         <v>22</v>
       </c>
       <c r="V32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W32" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3839,34 +3851,34 @@
         <v>21</v>
       </c>
       <c r="V33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AE33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3934,34 +3946,34 @@
         <v>19</v>
       </c>
       <c r="V34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="W34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AC34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD34" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -4029,34 +4041,34 @@
         <v>21</v>
       </c>
       <c r="V35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W35" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z35" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD35" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE35" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -4124,34 +4136,34 @@
         <v>20</v>
       </c>
       <c r="V36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y36" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC36" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD36" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE36" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -4219,34 +4231,34 @@
         <v>21</v>
       </c>
       <c r="V37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W37" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB37" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC37" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -4314,34 +4326,34 @@
         <v>20</v>
       </c>
       <c r="V38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB38" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AE38" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -4409,34 +4421,34 @@
         <v>20</v>
       </c>
       <c r="V39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y39" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z39" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AA39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE39" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -4504,34 +4516,34 @@
         <v>19</v>
       </c>
       <c r="V40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z40" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AA40" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB40" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC40" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD40" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE40" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4599,34 +4611,34 @@
         <v>20</v>
       </c>
       <c r="V41" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W41" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y41" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AA41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE41" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -4694,34 +4706,34 @@
         <v>20</v>
       </c>
       <c r="V42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W42" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X42" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y42" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA42" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AE42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -4789,34 +4801,34 @@
         <v>21</v>
       </c>
       <c r="V43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W43" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y43" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA43" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB43" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AC43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE43" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -4884,34 +4896,34 @@
         <v>19</v>
       </c>
       <c r="V44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W44" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AA44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB44" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC44" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD44" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE44" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -4979,34 +4991,34 @@
         <v>22</v>
       </c>
       <c r="V45" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W45" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X45" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y45" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z45" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AA45" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB45" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC45" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD45" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE45" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -5074,34 +5086,34 @@
         <v>21</v>
       </c>
       <c r="V46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W46" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X46" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AA46" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB46" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -5169,34 +5181,34 @@
         <v>24</v>
       </c>
       <c r="V47" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W47" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X47" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y47" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z47" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AA47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD47" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE47" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -5264,34 +5276,34 @@
         <v>22</v>
       </c>
       <c r="V48" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Z48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC48" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -5359,34 +5371,34 @@
         <v>24</v>
       </c>
       <c r="V49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Y49" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AA49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AB49" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD49" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE49" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -5454,34 +5466,34 @@
         <v>23</v>
       </c>
       <c r="V50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Y50" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AA50" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AB50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE50" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -5549,34 +5561,34 @@
         <v>24</v>
       </c>
       <c r="V51" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X51" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Y51" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z51" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA51" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB51" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -5644,34 +5656,34 @@
         <v>23</v>
       </c>
       <c r="V52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB52" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC52" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD52" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE52" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -5739,34 +5751,34 @@
         <v>23</v>
       </c>
       <c r="V53" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W53" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X53" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y53" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z53" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AA53" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB53" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC53" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD53" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE53" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -5834,34 +5846,34 @@
         <v>24</v>
       </c>
       <c r="V54" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Y54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE54" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -5929,34 +5941,34 @@
         <v>23</v>
       </c>
       <c r="V55" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W55" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="X55" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y55" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z55" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA55" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB55" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC55" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD55" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE55" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -6024,34 +6036,34 @@
         <v>22</v>
       </c>
       <c r="V56" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="W56" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X56" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y56" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z56" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AA56" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB56" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC56" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD56" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE56" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -6119,34 +6131,34 @@
         <v>25</v>
       </c>
       <c r="V57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="W57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X57" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -6214,34 +6226,34 @@
         <v>24</v>
       </c>
       <c r="V58" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W58" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X58" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y58" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z58" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA58" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB58" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC58" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD58" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE58" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6309,34 +6321,34 @@
         <v>24</v>
       </c>
       <c r="V59" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z59" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA59" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AB59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC59" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6404,34 +6416,34 @@
         <v>23</v>
       </c>
       <c r="V60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z60" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB60" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC60" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD60" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6499,34 +6511,34 @@
         <v>22</v>
       </c>
       <c r="V61" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W61" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z61" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA61" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AB61" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AC61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD61" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE61" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6594,34 +6606,34 @@
         <v>24</v>
       </c>
       <c r="V62" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W62" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X62" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y62" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z62" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AA62" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB62" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC62" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD62" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE62" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6689,34 +6701,34 @@
         <v>20</v>
       </c>
       <c r="V63" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W63" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X63" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Y63" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z63" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA63" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB63" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC63" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD63" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE63" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6784,34 +6796,34 @@
         <v>22</v>
       </c>
       <c r="V64" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W64" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X64" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Z64" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AA64" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AB64" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC64" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AE64" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6879,34 +6891,34 @@
         <v>22</v>
       </c>
       <c r="V65" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W65" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X65" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y65" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Z65" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AA65" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB65" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AC65" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD65" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE65" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6974,34 +6986,34 @@
         <v>20</v>
       </c>
       <c r="V66" t="s">
+        <v>119</v>
+      </c>
+      <c r="W66" t="s">
+        <v>118</v>
+      </c>
+      <c r="X66" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC66" t="s">
         <v>115</v>
       </c>
-      <c r="W66" t="s">
-        <v>114</v>
-      </c>
-      <c r="X66" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>111</v>
-      </c>
       <c r="AD66" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE66" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -7069,34 +7081,34 @@
         <v>22</v>
       </c>
       <c r="V67" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W67" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="X67" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y67" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z67" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA67" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AB67" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AC67" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD67" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AE67" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -7164,34 +7176,34 @@
         <v>20</v>
       </c>
       <c r="V68" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="W68" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X68" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y68" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z68" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA68" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB68" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC68" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD68" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE68" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -7259,34 +7271,34 @@
         <v>22</v>
       </c>
       <c r="V69" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="W69" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X69" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y69" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z69" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA69" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB69" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC69" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD69" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE69" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -7354,34 +7366,34 @@
         <v>22</v>
       </c>
       <c r="V70" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W70" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X70" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y70" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z70" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA70" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB70" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AC70" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD70" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE70" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -7449,34 +7461,34 @@
         <v>23</v>
       </c>
       <c r="V71" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="W71" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X71" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y71" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z71" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA71" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB71" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC71" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD71" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE71" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7544,34 +7556,34 @@
         <v>23</v>
       </c>
       <c r="V72" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="W72" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X72" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y72" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Z72" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA72" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB72" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AC72" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD72" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AE72" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -7639,34 +7651,34 @@
         <v>24</v>
       </c>
       <c r="V73" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W73" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="X73" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y73" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z73" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA73" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB73" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC73" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD73" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE73" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7734,34 +7746,34 @@
         <v>22</v>
       </c>
       <c r="V74" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="W74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y74" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z74" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA74" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB74" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD74" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7829,34 +7841,34 @@
         <v>22</v>
       </c>
       <c r="V75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="W75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y75" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z75" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AA75" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AB75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC75" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD75" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE75" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -7924,34 +7936,34 @@
         <v>22</v>
       </c>
       <c r="V76" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="W76" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X76" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y76" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Z76" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AA76" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB76" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC76" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD76" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE76" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -8019,34 +8031,34 @@
         <v>22</v>
       </c>
       <c r="V77" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W77" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X77" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Y77" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC77" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD77" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AE77" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -8114,34 +8126,34 @@
         <v>22</v>
       </c>
       <c r="V78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="W78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Y78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Z78" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA78" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB78" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC78" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AE78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -8209,34 +8221,414 @@
         <v>21</v>
       </c>
       <c r="V79" t="s">
+        <v>119</v>
+      </c>
+      <c r="W79" t="s">
+        <v>119</v>
+      </c>
+      <c r="X79" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <v>31</v>
+      </c>
+      <c r="F80">
+        <v>32</v>
+      </c>
+      <c r="G80">
+        <v>33</v>
+      </c>
+      <c r="H80">
+        <v>32</v>
+      </c>
+      <c r="I80">
+        <v>33</v>
+      </c>
+      <c r="J80">
+        <v>33</v>
+      </c>
+      <c r="K80">
+        <v>34</v>
+      </c>
+      <c r="L80">
+        <v>22</v>
+      </c>
+      <c r="M80">
+        <v>20</v>
+      </c>
+      <c r="N80">
+        <v>20</v>
+      </c>
+      <c r="O80">
+        <v>20</v>
+      </c>
+      <c r="P80">
+        <v>21</v>
+      </c>
+      <c r="Q80">
+        <v>21</v>
+      </c>
+      <c r="R80">
+        <v>22</v>
+      </c>
+      <c r="S80">
+        <v>22</v>
+      </c>
+      <c r="T80">
+        <v>22</v>
+      </c>
+      <c r="U80">
+        <v>23</v>
+      </c>
+      <c r="V80" t="s">
         <v>115</v>
       </c>
-      <c r="W79" t="s">
-        <v>115</v>
-      </c>
-      <c r="X79" t="s">
+      <c r="W80" t="s">
+        <v>116</v>
+      </c>
+      <c r="X80" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>29</v>
+      </c>
+      <c r="D81">
+        <v>32</v>
+      </c>
+      <c r="E81">
+        <v>32</v>
+      </c>
+      <c r="F81">
+        <v>33</v>
+      </c>
+      <c r="G81">
+        <v>31</v>
+      </c>
+      <c r="H81">
+        <v>30</v>
+      </c>
+      <c r="I81">
+        <v>30</v>
+      </c>
+      <c r="J81">
+        <v>31</v>
+      </c>
+      <c r="K81">
+        <v>32</v>
+      </c>
+      <c r="L81">
+        <v>20</v>
+      </c>
+      <c r="M81">
+        <v>20</v>
+      </c>
+      <c r="N81">
+        <v>19</v>
+      </c>
+      <c r="O81">
+        <v>20</v>
+      </c>
+      <c r="P81">
+        <v>21</v>
+      </c>
+      <c r="Q81">
+        <v>21</v>
+      </c>
+      <c r="R81">
+        <v>20</v>
+      </c>
+      <c r="S81">
+        <v>21</v>
+      </c>
+      <c r="T81">
+        <v>21</v>
+      </c>
+      <c r="U81">
+        <v>20</v>
+      </c>
+      <c r="V81" t="s">
+        <v>113</v>
+      </c>
+      <c r="W81" t="s">
+        <v>116</v>
+      </c>
+      <c r="X81" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
+      <c r="A82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82">
+        <v>30</v>
+      </c>
+      <c r="C82">
+        <v>32</v>
+      </c>
+      <c r="D82">
+        <v>33</v>
+      </c>
+      <c r="E82">
+        <v>33</v>
+      </c>
+      <c r="F82">
+        <v>33</v>
+      </c>
+      <c r="G82">
+        <v>30</v>
+      </c>
+      <c r="H82">
+        <v>29</v>
+      </c>
+      <c r="I82">
+        <v>31</v>
+      </c>
+      <c r="J82">
+        <v>32</v>
+      </c>
+      <c r="K82">
+        <v>33</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82">
+        <v>20</v>
+      </c>
+      <c r="N82">
+        <v>20</v>
+      </c>
+      <c r="O82">
+        <v>22</v>
+      </c>
+      <c r="P82">
+        <v>22</v>
+      </c>
+      <c r="Q82">
+        <v>19</v>
+      </c>
+      <c r="R82">
+        <v>20</v>
+      </c>
+      <c r="S82">
+        <v>20</v>
+      </c>
+      <c r="T82">
+        <v>22</v>
+      </c>
+      <c r="U82">
+        <v>22</v>
+      </c>
+      <c r="V82" t="s">
+        <v>113</v>
+      </c>
+      <c r="W82" t="s">
+        <v>116</v>
+      </c>
+      <c r="X82" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
+      <c r="A83" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Y79" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>112</v>
+      <c r="B83">
+        <v>32</v>
+      </c>
+      <c r="C83">
+        <v>33</v>
+      </c>
+      <c r="D83">
+        <v>34</v>
+      </c>
+      <c r="E83">
+        <v>32</v>
+      </c>
+      <c r="F83">
+        <v>31</v>
+      </c>
+      <c r="G83">
+        <v>29</v>
+      </c>
+      <c r="H83">
+        <v>28</v>
+      </c>
+      <c r="I83">
+        <v>30</v>
+      </c>
+      <c r="J83">
+        <v>32</v>
+      </c>
+      <c r="K83">
+        <v>32</v>
+      </c>
+      <c r="L83">
+        <v>19</v>
+      </c>
+      <c r="M83">
+        <v>20</v>
+      </c>
+      <c r="N83">
+        <v>21</v>
+      </c>
+      <c r="O83">
+        <v>22</v>
+      </c>
+      <c r="P83">
+        <v>19</v>
+      </c>
+      <c r="Q83">
+        <v>18</v>
+      </c>
+      <c r="R83">
+        <v>18</v>
+      </c>
+      <c r="S83">
+        <v>20</v>
+      </c>
+      <c r="T83">
+        <v>21</v>
+      </c>
+      <c r="U83">
+        <v>22</v>
+      </c>
+      <c r="V83" t="s">
+        <v>119</v>
+      </c>
+      <c r="W83" t="s">
+        <v>119</v>
+      </c>
+      <c r="X83" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
